--- a/October/Others/Price List Update_01.10.19.xlsx
+++ b/October/Others/Price List Update_01.10.19.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="122">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -349,9 +350,6 @@
     <t>V99</t>
   </si>
   <si>
-    <t>Date:  01.10.19</t>
-  </si>
-  <si>
     <t xml:space="preserve">    +8801715-116767</t>
   </si>
   <si>
@@ -359,6 +357,87 @@
   </si>
   <si>
     <t xml:space="preserve">                     Madrasha Market, Bagha Rajshahi.</t>
+  </si>
+  <si>
+    <t>Date:  06.10.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symphony Price List </t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation </t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>S10Helio</t>
+  </si>
+  <si>
+    <t>S5Helio</t>
+  </si>
+  <si>
+    <t>T110</t>
+  </si>
+  <si>
+    <t>T200</t>
+  </si>
+  <si>
+    <t>T85</t>
+  </si>
+  <si>
+    <t>V130</t>
+  </si>
+  <si>
+    <t>E90</t>
+  </si>
+  <si>
+    <t>I100</t>
+  </si>
+  <si>
+    <t>V75 SKD</t>
+  </si>
+  <si>
+    <t>V94</t>
+  </si>
+  <si>
+    <t>L120</t>
+  </si>
+  <si>
+    <t>V98</t>
+  </si>
+  <si>
+    <t>Z10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Madrasha Market, Bagha Bazar, Rajshahi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           tulip-2.rajshahi@gmail.com</t>
+  </si>
+  <si>
+    <t>Distributor: Symphony (Mobile Handset) Edison-Group</t>
+  </si>
+  <si>
+    <t>I110</t>
+  </si>
+  <si>
+    <t>i10+</t>
+  </si>
+  <si>
+    <t>October Month'2019</t>
+  </si>
+  <si>
+    <t>D40i</t>
   </si>
 </sst>
 </file>
@@ -368,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,8 +590,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +650,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +776,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -769,17 +915,78 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1099,7 +1306,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2199,7 +2406,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2645,7 +2852,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2716,7 +2923,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2790,7 +2997,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2861,7 +3068,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3178,7 +3385,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4278,7 +4485,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4724,7 +4931,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4795,7 +5002,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4869,7 +5076,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4940,7 +5147,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5023,6 +5230,2237 @@
         <a:xfrm>
           <a:off x="3552825" y="47626"/>
           <a:ext cx="118110" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>268677</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>440297</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114342</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 19"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="268677" y="10591925"/>
+          <a:ext cx="5315120" cy="247567"/>
+          <a:chOff x="-564" y="-337"/>
+          <a:chExt cx="1279" cy="894"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Freeform 21"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="-102" y="-337"/>
+            <a:ext cx="43" cy="894"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 40 w 41"/>
+              <a:gd name="T1" fmla="*/ 19 h 66"/>
+              <a:gd name="T2" fmla="*/ 31 w 41"/>
+              <a:gd name="T3" fmla="*/ 5 h 66"/>
+              <a:gd name="T4" fmla="*/ 11 w 41"/>
+              <a:gd name="T5" fmla="*/ 4 h 66"/>
+              <a:gd name="T6" fmla="*/ 0 w 41"/>
+              <a:gd name="T7" fmla="*/ 22 h 66"/>
+              <a:gd name="T8" fmla="*/ 0 w 41"/>
+              <a:gd name="T9" fmla="*/ 25 h 66"/>
+              <a:gd name="T10" fmla="*/ 4 w 41"/>
+              <a:gd name="T11" fmla="*/ 38 h 66"/>
+              <a:gd name="T12" fmla="*/ 19 w 41"/>
+              <a:gd name="T13" fmla="*/ 65 h 66"/>
+              <a:gd name="T14" fmla="*/ 21 w 41"/>
+              <a:gd name="T15" fmla="*/ 65 h 66"/>
+              <a:gd name="T16" fmla="*/ 33 w 41"/>
+              <a:gd name="T17" fmla="*/ 43 h 66"/>
+              <a:gd name="T18" fmla="*/ 39 w 41"/>
+              <a:gd name="T19" fmla="*/ 29 h 66"/>
+              <a:gd name="T20" fmla="*/ 40 w 41"/>
+              <a:gd name="T21" fmla="*/ 19 h 66"/>
+              <a:gd name="T22" fmla="*/ 20 w 41"/>
+              <a:gd name="T23" fmla="*/ 32 h 66"/>
+              <a:gd name="T24" fmla="*/ 11 w 41"/>
+              <a:gd name="T25" fmla="*/ 22 h 66"/>
+              <a:gd name="T26" fmla="*/ 20 w 41"/>
+              <a:gd name="T27" fmla="*/ 13 h 66"/>
+              <a:gd name="T28" fmla="*/ 29 w 41"/>
+              <a:gd name="T29" fmla="*/ 22 h 66"/>
+              <a:gd name="T30" fmla="*/ 20 w 41"/>
+              <a:gd name="T31" fmla="*/ 32 h 66"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="41" h="66">
+                <a:moveTo>
+                  <a:pt x="40" y="19"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="13"/>
+                  <a:pt x="36" y="8"/>
+                  <a:pt x="31" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="1"/>
+                  <a:pt x="18" y="0"/>
+                  <a:pt x="11" y="4"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="7"/>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23"/>
+                  <a:pt x="0" y="24"/>
+                  <a:pt x="0" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="29"/>
+                  <a:pt x="2" y="34"/>
+                  <a:pt x="4" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="48"/>
+                  <a:pt x="13" y="57"/>
+                  <a:pt x="19" y="65"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="66"/>
+                  <a:pt x="20" y="66"/>
+                  <a:pt x="21" y="65"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="58"/>
+                  <a:pt x="30" y="51"/>
+                  <a:pt x="33" y="43"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="39"/>
+                  <a:pt x="38" y="34"/>
+                  <a:pt x="39" y="29"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="26"/>
+                  <a:pt x="41" y="22"/>
+                  <a:pt x="40" y="19"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="20" y="32"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="32"/>
+                  <a:pt x="11" y="27"/>
+                  <a:pt x="11" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="17"/>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="20" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="29" y="17"/>
+                  <a:pt x="29" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="29" y="27"/>
+                  <a:pt x="25" y="32"/>
+                  <a:pt x="20" y="32"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Freeform 22"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="662" y="-269"/>
+            <a:ext cx="53" cy="757"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 26 w 53"/>
+              <a:gd name="T1" fmla="*/ 53 h 53"/>
+              <a:gd name="T2" fmla="*/ 25 w 53"/>
+              <a:gd name="T3" fmla="*/ 5 h 53"/>
+              <a:gd name="T4" fmla="*/ 25 w 53"/>
+              <a:gd name="T5" fmla="*/ 13 h 53"/>
+              <a:gd name="T6" fmla="*/ 18 w 53"/>
+              <a:gd name="T7" fmla="*/ 13 h 53"/>
+              <a:gd name="T8" fmla="*/ 25 w 53"/>
+              <a:gd name="T9" fmla="*/ 25 h 53"/>
+              <a:gd name="T10" fmla="*/ 15 w 53"/>
+              <a:gd name="T11" fmla="*/ 25 h 53"/>
+              <a:gd name="T12" fmla="*/ 25 w 53"/>
+              <a:gd name="T13" fmla="*/ 16 h 53"/>
+              <a:gd name="T14" fmla="*/ 10 w 53"/>
+              <a:gd name="T15" fmla="*/ 11 h 53"/>
+              <a:gd name="T16" fmla="*/ 21 w 53"/>
+              <a:gd name="T17" fmla="*/ 5 h 53"/>
+              <a:gd name="T18" fmla="*/ 15 w 53"/>
+              <a:gd name="T19" fmla="*/ 13 h 53"/>
+              <a:gd name="T20" fmla="*/ 8 w 53"/>
+              <a:gd name="T21" fmla="*/ 13 h 53"/>
+              <a:gd name="T22" fmla="*/ 6 w 53"/>
+              <a:gd name="T23" fmla="*/ 16 h 53"/>
+              <a:gd name="T24" fmla="*/ 14 w 53"/>
+              <a:gd name="T25" fmla="*/ 16 h 53"/>
+              <a:gd name="T26" fmla="*/ 12 w 53"/>
+              <a:gd name="T27" fmla="*/ 25 h 53"/>
+              <a:gd name="T28" fmla="*/ 4 w 53"/>
+              <a:gd name="T29" fmla="*/ 25 h 53"/>
+              <a:gd name="T30" fmla="*/ 4 w 53"/>
+              <a:gd name="T31" fmla="*/ 28 h 53"/>
+              <a:gd name="T32" fmla="*/ 12 w 53"/>
+              <a:gd name="T33" fmla="*/ 28 h 53"/>
+              <a:gd name="T34" fmla="*/ 14 w 53"/>
+              <a:gd name="T35" fmla="*/ 38 h 53"/>
+              <a:gd name="T36" fmla="*/ 21 w 53"/>
+              <a:gd name="T37" fmla="*/ 49 h 53"/>
+              <a:gd name="T38" fmla="*/ 8 w 53"/>
+              <a:gd name="T39" fmla="*/ 40 h 53"/>
+              <a:gd name="T40" fmla="*/ 15 w 53"/>
+              <a:gd name="T41" fmla="*/ 41 h 53"/>
+              <a:gd name="T42" fmla="*/ 25 w 53"/>
+              <a:gd name="T43" fmla="*/ 49 h 53"/>
+              <a:gd name="T44" fmla="*/ 18 w 53"/>
+              <a:gd name="T45" fmla="*/ 40 h 53"/>
+              <a:gd name="T46" fmla="*/ 25 w 53"/>
+              <a:gd name="T47" fmla="*/ 49 h 53"/>
+              <a:gd name="T48" fmla="*/ 17 w 53"/>
+              <a:gd name="T49" fmla="*/ 38 h 53"/>
+              <a:gd name="T50" fmla="*/ 15 w 53"/>
+              <a:gd name="T51" fmla="*/ 28 h 53"/>
+              <a:gd name="T52" fmla="*/ 25 w 53"/>
+              <a:gd name="T53" fmla="*/ 28 h 53"/>
+              <a:gd name="T54" fmla="*/ 46 w 53"/>
+              <a:gd name="T55" fmla="*/ 16 h 53"/>
+              <a:gd name="T56" fmla="*/ 45 w 53"/>
+              <a:gd name="T57" fmla="*/ 25 h 53"/>
+              <a:gd name="T58" fmla="*/ 38 w 53"/>
+              <a:gd name="T59" fmla="*/ 16 h 53"/>
+              <a:gd name="T60" fmla="*/ 32 w 53"/>
+              <a:gd name="T61" fmla="*/ 5 h 53"/>
+              <a:gd name="T62" fmla="*/ 44 w 53"/>
+              <a:gd name="T63" fmla="*/ 13 h 53"/>
+              <a:gd name="T64" fmla="*/ 38 w 53"/>
+              <a:gd name="T65" fmla="*/ 13 h 53"/>
+              <a:gd name="T66" fmla="*/ 32 w 53"/>
+              <a:gd name="T67" fmla="*/ 5 h 53"/>
+              <a:gd name="T68" fmla="*/ 32 w 53"/>
+              <a:gd name="T69" fmla="*/ 5 h 53"/>
+              <a:gd name="T70" fmla="*/ 29 w 53"/>
+              <a:gd name="T71" fmla="*/ 6 h 53"/>
+              <a:gd name="T72" fmla="*/ 28 w 53"/>
+              <a:gd name="T73" fmla="*/ 13 h 53"/>
+              <a:gd name="T74" fmla="*/ 28 w 53"/>
+              <a:gd name="T75" fmla="*/ 16 h 53"/>
+              <a:gd name="T76" fmla="*/ 36 w 53"/>
+              <a:gd name="T77" fmla="*/ 16 h 53"/>
+              <a:gd name="T78" fmla="*/ 33 w 53"/>
+              <a:gd name="T79" fmla="*/ 25 h 53"/>
+              <a:gd name="T80" fmla="*/ 28 w 53"/>
+              <a:gd name="T81" fmla="*/ 16 h 53"/>
+              <a:gd name="T82" fmla="*/ 33 w 53"/>
+              <a:gd name="T83" fmla="*/ 28 h 53"/>
+              <a:gd name="T84" fmla="*/ 36 w 53"/>
+              <a:gd name="T85" fmla="*/ 38 h 53"/>
+              <a:gd name="T86" fmla="*/ 28 w 53"/>
+              <a:gd name="T87" fmla="*/ 38 h 53"/>
+              <a:gd name="T88" fmla="*/ 28 w 53"/>
+              <a:gd name="T89" fmla="*/ 49 h 53"/>
+              <a:gd name="T90" fmla="*/ 28 w 53"/>
+              <a:gd name="T91" fmla="*/ 41 h 53"/>
+              <a:gd name="T92" fmla="*/ 34 w 53"/>
+              <a:gd name="T93" fmla="*/ 40 h 53"/>
+              <a:gd name="T94" fmla="*/ 32 w 53"/>
+              <a:gd name="T95" fmla="*/ 49 h 53"/>
+              <a:gd name="T96" fmla="*/ 38 w 53"/>
+              <a:gd name="T97" fmla="*/ 40 h 53"/>
+              <a:gd name="T98" fmla="*/ 39 w 53"/>
+              <a:gd name="T99" fmla="*/ 46 h 53"/>
+              <a:gd name="T100" fmla="*/ 39 w 53"/>
+              <a:gd name="T101" fmla="*/ 38 h 53"/>
+              <a:gd name="T102" fmla="*/ 40 w 53"/>
+              <a:gd name="T103" fmla="*/ 28 h 53"/>
+              <a:gd name="T104" fmla="*/ 49 w 53"/>
+              <a:gd name="T105" fmla="*/ 28 h 53"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T80" y="T81"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T82" y="T83"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T84" y="T85"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T86" y="T87"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T88" y="T89"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T90" y="T91"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T92" y="T93"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T94" y="T95"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T96" y="T97"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T98" y="T99"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T100" y="T101"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T102" y="T103"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T104" y="T105"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="53" h="53">
+                <a:moveTo>
+                  <a:pt x="26" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="0"/>
+                  <a:pt x="0" y="12"/>
+                  <a:pt x="0" y="27"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="41"/>
+                  <a:pt x="12" y="53"/>
+                  <a:pt x="26" y="53"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="41" y="53"/>
+                  <a:pt x="53" y="41"/>
+                  <a:pt x="53" y="27"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="53" y="12"/>
+                  <a:pt x="41" y="0"/>
+                  <a:pt x="26" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="8"/>
+                  <a:pt x="25" y="10"/>
+                  <a:pt x="25" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="25" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="23" y="13"/>
+                  <a:pt x="21" y="13"/>
+                  <a:pt x="18" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="13"/>
+                  <a:pt x="18" y="13"/>
+                  <a:pt x="18" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="10"/>
+                  <a:pt x="22" y="7"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="25"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="25"/>
+                  <a:pt x="25" y="25"/>
+                  <a:pt x="25" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="23" y="25"/>
+                  <a:pt x="22" y="25"/>
+                  <a:pt x="20" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="25"/>
+                  <a:pt x="17" y="25"/>
+                  <a:pt x="15" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="25"/>
+                  <a:pt x="15" y="25"/>
+                  <a:pt x="15" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="22"/>
+                  <a:pt x="16" y="19"/>
+                  <a:pt x="17" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="16"/>
+                  <a:pt x="17" y="16"/>
+                  <a:pt x="17" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="16"/>
+                  <a:pt x="22" y="16"/>
+                  <a:pt x="25" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="16"/>
+                  <a:pt x="25" y="16"/>
+                  <a:pt x="25" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="19"/>
+                  <a:pt x="25" y="22"/>
+                  <a:pt x="25" y="25"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="10" y="11"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="8"/>
+                  <a:pt x="17" y="6"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="6"/>
+                  <a:pt x="18" y="8"/>
+                  <a:pt x="17" y="10"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="16" y="11"/>
+                  <a:pt x="16" y="12"/>
+                  <a:pt x="15" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="15" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="13"/>
+                  <a:pt x="11" y="13"/>
+                  <a:pt x="8" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="13"/>
+                  <a:pt x="8" y="13"/>
+                  <a:pt x="8" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="9" y="12"/>
+                  <a:pt x="9" y="12"/>
+                  <a:pt x="10" y="11"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="4" y="25"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="22"/>
+                  <a:pt x="5" y="19"/>
+                  <a:pt x="6" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="6" y="16"/>
+                  <a:pt x="7" y="16"/>
+                  <a:pt x="7" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="9" y="16"/>
+                  <a:pt x="12" y="16"/>
+                  <a:pt x="14" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="16"/>
+                  <a:pt x="14" y="16"/>
+                  <a:pt x="14" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="18"/>
+                  <a:pt x="13" y="20"/>
+                  <a:pt x="13" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="23"/>
+                  <a:pt x="13" y="24"/>
+                  <a:pt x="12" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="25"/>
+                  <a:pt x="12" y="25"/>
+                  <a:pt x="12" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="25"/>
+                  <a:pt x="9" y="25"/>
+                  <a:pt x="8" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="25"/>
+                  <a:pt x="5" y="25"/>
+                  <a:pt x="4" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="25"/>
+                  <a:pt x="4" y="25"/>
+                  <a:pt x="4" y="25"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="7" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="38"/>
+                  <a:pt x="6" y="38"/>
+                  <a:pt x="6" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="5" y="35"/>
+                  <a:pt x="4" y="32"/>
+                  <a:pt x="4" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="28"/>
+                  <a:pt x="4" y="28"/>
+                  <a:pt x="4" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="28"/>
+                  <a:pt x="9" y="28"/>
+                  <a:pt x="12" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="28"/>
+                  <a:pt x="12" y="28"/>
+                  <a:pt x="12" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="31"/>
+                  <a:pt x="13" y="35"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="38"/>
+                  <a:pt x="9" y="38"/>
+                  <a:pt x="7" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="21" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="48"/>
+                  <a:pt x="16" y="47"/>
+                  <a:pt x="13" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="44"/>
+                  <a:pt x="10" y="42"/>
+                  <a:pt x="8" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="40"/>
+                  <a:pt x="13" y="40"/>
+                  <a:pt x="15" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="40"/>
+                  <a:pt x="15" y="40"/>
+                  <a:pt x="15" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="44"/>
+                  <a:pt x="19" y="46"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="49"/>
+                  <a:pt x="25" y="49"/>
+                  <a:pt x="25" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="47"/>
+                  <a:pt x="20" y="44"/>
+                  <a:pt x="18" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="40"/>
+                  <a:pt x="18" y="40"/>
+                  <a:pt x="18" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="40"/>
+                  <a:pt x="23" y="40"/>
+                  <a:pt x="25" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="40"/>
+                  <a:pt x="25" y="40"/>
+                  <a:pt x="25" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="43"/>
+                  <a:pt x="25" y="46"/>
+                  <a:pt x="25" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="38"/>
+                  <a:pt x="25" y="38"/>
+                  <a:pt x="25" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="38"/>
+                  <a:pt x="20" y="38"/>
+                  <a:pt x="17" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="38"/>
+                  <a:pt x="17" y="38"/>
+                  <a:pt x="17" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="16" y="35"/>
+                  <a:pt x="15" y="31"/>
+                  <a:pt x="15" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="28"/>
+                  <a:pt x="15" y="28"/>
+                  <a:pt x="15" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="28"/>
+                  <a:pt x="18" y="28"/>
+                  <a:pt x="20" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="28"/>
+                  <a:pt x="23" y="28"/>
+                  <a:pt x="25" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="28"/>
+                  <a:pt x="25" y="28"/>
+                  <a:pt x="25" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="31"/>
+                  <a:pt x="25" y="34"/>
+                  <a:pt x="25" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="46" y="16"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="16"/>
+                  <a:pt x="46" y="16"/>
+                  <a:pt x="46" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="48" y="19"/>
+                  <a:pt x="49" y="22"/>
+                  <a:pt x="49" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="25"/>
+                  <a:pt x="49" y="25"/>
+                  <a:pt x="49" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="47" y="25"/>
+                  <a:pt x="46" y="25"/>
+                  <a:pt x="45" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="43" y="25"/>
+                  <a:pt x="42" y="25"/>
+                  <a:pt x="41" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="25"/>
+                  <a:pt x="40" y="25"/>
+                  <a:pt x="40" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="22"/>
+                  <a:pt x="40" y="19"/>
+                  <a:pt x="38" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="16"/>
+                  <a:pt x="38" y="16"/>
+                  <a:pt x="39" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="41" y="16"/>
+                  <a:pt x="44" y="16"/>
+                  <a:pt x="46" y="16"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="32" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="5"/>
+                  <a:pt x="34" y="5"/>
+                  <a:pt x="36" y="6"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="8"/>
+                  <a:pt x="42" y="10"/>
+                  <a:pt x="44" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="13"/>
+                  <a:pt x="45" y="13"/>
+                  <a:pt x="45" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="45" y="13"/>
+                  <a:pt x="44" y="13"/>
+                  <a:pt x="44" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="13"/>
+                  <a:pt x="40" y="13"/>
+                  <a:pt x="38" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="13"/>
+                  <a:pt x="37" y="13"/>
+                  <a:pt x="37" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="10"/>
+                  <a:pt x="34" y="7"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="31" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="28" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="29" y="5"/>
+                  <a:pt x="29" y="6"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="31" y="8"/>
+                  <a:pt x="33" y="10"/>
+                  <a:pt x="34" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="13"/>
+                  <a:pt x="35" y="13"/>
+                  <a:pt x="34" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="13"/>
+                  <a:pt x="30" y="13"/>
+                  <a:pt x="28" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="13"/>
+                  <a:pt x="28" y="13"/>
+                  <a:pt x="28" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="10"/>
+                  <a:pt x="28" y="7"/>
+                  <a:pt x="28" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="16"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="16"/>
+                  <a:pt x="28" y="16"/>
+                  <a:pt x="28" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="30" y="16"/>
+                  <a:pt x="33" y="16"/>
+                  <a:pt x="36" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="16"/>
+                  <a:pt x="36" y="16"/>
+                  <a:pt x="36" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="19"/>
+                  <a:pt x="38" y="22"/>
+                  <a:pt x="38" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="26"/>
+                  <a:pt x="38" y="25"/>
+                  <a:pt x="38" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="25"/>
+                  <a:pt x="34" y="25"/>
+                  <a:pt x="33" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="31" y="25"/>
+                  <a:pt x="29" y="25"/>
+                  <a:pt x="28" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="25"/>
+                  <a:pt x="28" y="25"/>
+                  <a:pt x="28" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="22"/>
+                  <a:pt x="28" y="19"/>
+                  <a:pt x="28" y="16"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="28"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="28"/>
+                  <a:pt x="28" y="28"/>
+                  <a:pt x="28" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="29" y="28"/>
+                  <a:pt x="31" y="28"/>
+                  <a:pt x="33" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="34" y="28"/>
+                  <a:pt x="36" y="28"/>
+                  <a:pt x="38" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="28"/>
+                  <a:pt x="38" y="28"/>
+                  <a:pt x="38" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="31"/>
+                  <a:pt x="37" y="35"/>
+                  <a:pt x="36" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="38"/>
+                  <a:pt x="36" y="38"/>
+                  <a:pt x="35" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="38"/>
+                  <a:pt x="30" y="38"/>
+                  <a:pt x="28" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="28" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="34"/>
+                  <a:pt x="28" y="31"/>
+                  <a:pt x="28" y="28"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="46"/>
+                  <a:pt x="28" y="43"/>
+                  <a:pt x="28" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="40"/>
+                  <a:pt x="28" y="40"/>
+                  <a:pt x="28" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="30" y="40"/>
+                  <a:pt x="32" y="40"/>
+                  <a:pt x="34" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="40"/>
+                  <a:pt x="35" y="40"/>
+                  <a:pt x="34" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="44"/>
+                  <a:pt x="31" y="46"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="39" y="46"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="47"/>
+                  <a:pt x="34" y="48"/>
+                  <a:pt x="32" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="48"/>
+                  <a:pt x="33" y="47"/>
+                  <a:pt x="34" y="46"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="44"/>
+                  <a:pt x="36" y="42"/>
+                  <a:pt x="37" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="40"/>
+                  <a:pt x="37" y="40"/>
+                  <a:pt x="38" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="40"/>
+                  <a:pt x="42" y="40"/>
+                  <a:pt x="44" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="40"/>
+                  <a:pt x="44" y="40"/>
+                  <a:pt x="45" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="43" y="42"/>
+                  <a:pt x="41" y="44"/>
+                  <a:pt x="39" y="46"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="46" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="38"/>
+                  <a:pt x="46" y="38"/>
+                  <a:pt x="46" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="38"/>
+                  <a:pt x="41" y="38"/>
+                  <a:pt x="39" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="38"/>
+                  <a:pt x="38" y="38"/>
+                  <a:pt x="38" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="35"/>
+                  <a:pt x="40" y="32"/>
+                  <a:pt x="40" y="30"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="29"/>
+                  <a:pt x="40" y="29"/>
+                  <a:pt x="40" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="28"/>
+                  <a:pt x="40" y="28"/>
+                  <a:pt x="41" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="28"/>
+                  <a:pt x="43" y="28"/>
+                  <a:pt x="45" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="28"/>
+                  <a:pt x="47" y="28"/>
+                  <a:pt x="49" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="28"/>
+                  <a:pt x="49" y="28"/>
+                  <a:pt x="49" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="32"/>
+                  <a:pt x="48" y="35"/>
+                  <a:pt x="46" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Freeform 23"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="-564" y="-253"/>
+            <a:ext cx="56" cy="741"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 w 64"/>
+              <a:gd name="T1" fmla="*/ 13 h 64"/>
+              <a:gd name="T2" fmla="*/ 1 w 64"/>
+              <a:gd name="T3" fmla="*/ 12 h 64"/>
+              <a:gd name="T4" fmla="*/ 2 w 64"/>
+              <a:gd name="T5" fmla="*/ 10 h 64"/>
+              <a:gd name="T6" fmla="*/ 11 w 64"/>
+              <a:gd name="T7" fmla="*/ 1 h 64"/>
+              <a:gd name="T8" fmla="*/ 15 w 64"/>
+              <a:gd name="T9" fmla="*/ 0 h 64"/>
+              <a:gd name="T10" fmla="*/ 16 w 64"/>
+              <a:gd name="T11" fmla="*/ 2 h 64"/>
+              <a:gd name="T12" fmla="*/ 23 w 64"/>
+              <a:gd name="T13" fmla="*/ 15 h 64"/>
+              <a:gd name="T14" fmla="*/ 23 w 64"/>
+              <a:gd name="T15" fmla="*/ 20 h 64"/>
+              <a:gd name="T16" fmla="*/ 19 w 64"/>
+              <a:gd name="T17" fmla="*/ 23 h 64"/>
+              <a:gd name="T18" fmla="*/ 19 w 64"/>
+              <a:gd name="T19" fmla="*/ 25 h 64"/>
+              <a:gd name="T20" fmla="*/ 21 w 64"/>
+              <a:gd name="T21" fmla="*/ 29 h 64"/>
+              <a:gd name="T22" fmla="*/ 25 w 64"/>
+              <a:gd name="T23" fmla="*/ 35 h 64"/>
+              <a:gd name="T24" fmla="*/ 34 w 64"/>
+              <a:gd name="T25" fmla="*/ 43 h 64"/>
+              <a:gd name="T26" fmla="*/ 39 w 64"/>
+              <a:gd name="T27" fmla="*/ 45 h 64"/>
+              <a:gd name="T28" fmla="*/ 41 w 64"/>
+              <a:gd name="T29" fmla="*/ 45 h 64"/>
+              <a:gd name="T30" fmla="*/ 44 w 64"/>
+              <a:gd name="T31" fmla="*/ 41 h 64"/>
+              <a:gd name="T32" fmla="*/ 50 w 64"/>
+              <a:gd name="T33" fmla="*/ 40 h 64"/>
+              <a:gd name="T34" fmla="*/ 62 w 64"/>
+              <a:gd name="T35" fmla="*/ 48 h 64"/>
+              <a:gd name="T36" fmla="*/ 64 w 64"/>
+              <a:gd name="T37" fmla="*/ 50 h 64"/>
+              <a:gd name="T38" fmla="*/ 63 w 64"/>
+              <a:gd name="T39" fmla="*/ 52 h 64"/>
+              <a:gd name="T40" fmla="*/ 63 w 64"/>
+              <a:gd name="T41" fmla="*/ 53 h 64"/>
+              <a:gd name="T42" fmla="*/ 54 w 64"/>
+              <a:gd name="T43" fmla="*/ 61 h 64"/>
+              <a:gd name="T44" fmla="*/ 50 w 64"/>
+              <a:gd name="T45" fmla="*/ 63 h 64"/>
+              <a:gd name="T46" fmla="*/ 50 w 64"/>
+              <a:gd name="T47" fmla="*/ 64 h 64"/>
+              <a:gd name="T48" fmla="*/ 50 w 64"/>
+              <a:gd name="T49" fmla="*/ 64 h 64"/>
+              <a:gd name="T50" fmla="*/ 49 w 64"/>
+              <a:gd name="T51" fmla="*/ 64 h 64"/>
+              <a:gd name="T52" fmla="*/ 48 w 64"/>
+              <a:gd name="T53" fmla="*/ 64 h 64"/>
+              <a:gd name="T54" fmla="*/ 43 w 64"/>
+              <a:gd name="T55" fmla="*/ 63 h 64"/>
+              <a:gd name="T56" fmla="*/ 35 w 64"/>
+              <a:gd name="T57" fmla="*/ 60 h 64"/>
+              <a:gd name="T58" fmla="*/ 26 w 64"/>
+              <a:gd name="T59" fmla="*/ 54 h 64"/>
+              <a:gd name="T60" fmla="*/ 21 w 64"/>
+              <a:gd name="T61" fmla="*/ 50 h 64"/>
+              <a:gd name="T62" fmla="*/ 16 w 64"/>
+              <a:gd name="T63" fmla="*/ 45 h 64"/>
+              <a:gd name="T64" fmla="*/ 6 w 64"/>
+              <a:gd name="T65" fmla="*/ 32 h 64"/>
+              <a:gd name="T66" fmla="*/ 1 w 64"/>
+              <a:gd name="T67" fmla="*/ 19 h 64"/>
+              <a:gd name="T68" fmla="*/ 0 w 64"/>
+              <a:gd name="T69" fmla="*/ 16 h 64"/>
+              <a:gd name="T70" fmla="*/ 0 w 64"/>
+              <a:gd name="T71" fmla="*/ 16 h 64"/>
+              <a:gd name="T72" fmla="*/ 0 w 64"/>
+              <a:gd name="T73" fmla="*/ 15 h 64"/>
+              <a:gd name="T74" fmla="*/ 0 w 64"/>
+              <a:gd name="T75" fmla="*/ 15 h 64"/>
+              <a:gd name="T76" fmla="*/ 0 w 64"/>
+              <a:gd name="T77" fmla="*/ 14 h 64"/>
+              <a:gd name="T78" fmla="*/ 0 w 64"/>
+              <a:gd name="T79" fmla="*/ 13 h 64"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="64" h="64">
+                <a:moveTo>
+                  <a:pt x="0" y="13"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="1" y="13"/>
+                  <a:pt x="0" y="13"/>
+                  <a:pt x="1" y="12"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1" y="11"/>
+                  <a:pt x="1" y="11"/>
+                  <a:pt x="2" y="10"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="5" y="7"/>
+                  <a:pt x="8" y="4"/>
+                  <a:pt x="11" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="0"/>
+                  <a:pt x="14" y="0"/>
+                  <a:pt x="15" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="1"/>
+                  <a:pt x="16" y="1"/>
+                  <a:pt x="16" y="2"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="6"/>
+                  <a:pt x="21" y="11"/>
+                  <a:pt x="23" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="24" y="17"/>
+                  <a:pt x="24" y="18"/>
+                  <a:pt x="23" y="20"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="21"/>
+                  <a:pt x="20" y="22"/>
+                  <a:pt x="19" y="23"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19" y="23"/>
+                  <a:pt x="19" y="24"/>
+                  <a:pt x="19" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19" y="26"/>
+                  <a:pt x="20" y="28"/>
+                  <a:pt x="21" y="29"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="31"/>
+                  <a:pt x="24" y="33"/>
+                  <a:pt x="25" y="35"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="31" y="41"/>
+                  <a:pt x="34" y="43"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="44"/>
+                  <a:pt x="37" y="45"/>
+                  <a:pt x="39" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="45"/>
+                  <a:pt x="40" y="45"/>
+                  <a:pt x="41" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="43"/>
+                  <a:pt x="43" y="42"/>
+                  <a:pt x="44" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="40"/>
+                  <a:pt x="48" y="39"/>
+                  <a:pt x="50" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="54" y="43"/>
+                  <a:pt x="58" y="45"/>
+                  <a:pt x="62" y="48"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="63" y="48"/>
+                  <a:pt x="64" y="49"/>
+                  <a:pt x="64" y="50"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="64" y="51"/>
+                  <a:pt x="64" y="52"/>
+                  <a:pt x="63" y="52"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="63" y="53"/>
+                  <a:pt x="63" y="53"/>
+                  <a:pt x="63" y="53"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="60" y="56"/>
+                  <a:pt x="57" y="59"/>
+                  <a:pt x="54" y="61"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="53" y="62"/>
+                  <a:pt x="52" y="63"/>
+                  <a:pt x="50" y="63"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50" y="63"/>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="63"/>
+                  <a:pt x="49" y="63"/>
+                  <a:pt x="49" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="48" y="64"/>
+                  <a:pt x="48" y="64"/>
+                  <a:pt x="48" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="63"/>
+                  <a:pt x="45" y="63"/>
+                  <a:pt x="43" y="63"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="62"/>
+                  <a:pt x="37" y="61"/>
+                  <a:pt x="35" y="60"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="58"/>
+                  <a:pt x="29" y="56"/>
+                  <a:pt x="26" y="54"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="53"/>
+                  <a:pt x="23" y="52"/>
+                  <a:pt x="21" y="50"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="49"/>
+                  <a:pt x="18" y="47"/>
+                  <a:pt x="16" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="41"/>
+                  <a:pt x="8" y="37"/>
+                  <a:pt x="6" y="32"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="3" y="28"/>
+                  <a:pt x="1" y="23"/>
+                  <a:pt x="1" y="19"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="18"/>
+                  <a:pt x="0" y="17"/>
+                  <a:pt x="0" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="14"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="13"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Freeform 24"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="253" y="249"/>
+            <a:ext cx="0" cy="239"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 h 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 0 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Freeform 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="272" y="269"/>
+            <a:ext cx="0" cy="238"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 w 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 1 w 1"/>
+              <a:gd name="T3" fmla="*/ 1 h 1"/>
+              <a:gd name="T4" fmla="*/ 0 w 1"/>
+              <a:gd name="T5" fmla="*/ 1 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1" h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="1"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="0"/>
+                  <a:pt x="0" y="0"/>
+                  <a:pt x="1" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Freeform 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="253" y="250"/>
+            <a:ext cx="0" cy="238"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 h 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 0 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164313</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343276" y="76201"/>
+          <a:ext cx="489094" cy="2637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2653</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990976" y="66675"/>
+          <a:ext cx="283098" cy="1143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>513692</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>327117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2666342" y="9525"/>
+          <a:ext cx="381658" cy="317592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="47626"/>
+          <a:ext cx="118110" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196561</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="47625"/>
+          <a:ext cx="123579" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="19050"/>
+          <a:ext cx="133350" cy="110966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5324,8 +7762,8 @@
   </sheetPr>
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J46"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6572,8 +9010,8 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6624,7 +9062,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="20"/>
       <c r="F3" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
@@ -7602,31 +10040,31 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" s="40"/>
+      <c r="H46" s="55"/>
       <c r="I46" s="56"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="55"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="57"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7643,4 +10081,1442 @@
   <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:K53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A2" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:11" s="74" customFormat="1" ht="18.75">
+      <c r="A3" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+    </row>
+    <row r="4" spans="1:11" s="68" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="62">
+        <v>800</v>
+      </c>
+      <c r="C5" s="62">
+        <v>875</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62">
+        <v>10</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="63">
+        <v>1010</v>
+      </c>
+      <c r="I5" s="63">
+        <v>1090</v>
+      </c>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="62">
+        <v>780</v>
+      </c>
+      <c r="C6" s="62">
+        <v>840</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62">
+        <v>10</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="63">
+        <v>1040</v>
+      </c>
+      <c r="I6" s="63">
+        <v>1130</v>
+      </c>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="62">
+        <v>810</v>
+      </c>
+      <c r="C7" s="62">
+        <v>880</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62">
+        <v>10</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="63">
+        <v>1100</v>
+      </c>
+      <c r="I7" s="63">
+        <v>1199</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="62">
+        <v>800</v>
+      </c>
+      <c r="C8" s="62">
+        <v>870</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62">
+        <v>10</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="63">
+        <v>1050</v>
+      </c>
+      <c r="I8" s="63">
+        <v>1130</v>
+      </c>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="63">
+        <v>1130</v>
+      </c>
+      <c r="I9" s="63">
+        <v>1230</v>
+      </c>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="62">
+        <v>790</v>
+      </c>
+      <c r="C10" s="62">
+        <v>860</v>
+      </c>
+      <c r="D10" s="62">
+        <v>30</v>
+      </c>
+      <c r="E10" s="62">
+        <v>10</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="63">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="63">
+        <v>1190</v>
+      </c>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="62">
+        <v>800</v>
+      </c>
+      <c r="C11" s="62">
+        <v>860</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62">
+        <v>10</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="63">
+        <v>1330</v>
+      </c>
+      <c r="I11" s="63">
+        <v>1450</v>
+      </c>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="62">
+        <v>790</v>
+      </c>
+      <c r="C12" s="62">
+        <v>850</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62">
+        <v>10</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="63">
+        <v>1200</v>
+      </c>
+      <c r="I12" s="63">
+        <v>1299</v>
+      </c>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="62">
+        <v>915</v>
+      </c>
+      <c r="C13" s="62">
+        <v>990</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62">
+        <v>0</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="63">
+        <v>1100</v>
+      </c>
+      <c r="I13" s="63">
+        <v>1190</v>
+      </c>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="62">
+        <v>890</v>
+      </c>
+      <c r="C14" s="62">
+        <v>970</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62">
+        <v>10</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="63">
+        <v>12240</v>
+      </c>
+      <c r="I14" s="63">
+        <v>12990</v>
+      </c>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="62">
+        <v>920</v>
+      </c>
+      <c r="C15" s="62">
+        <v>999</v>
+      </c>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62">
+        <v>0</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="62">
+        <v>880</v>
+      </c>
+      <c r="C16" s="62">
+        <v>950</v>
+      </c>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62">
+        <v>20</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="63">
+        <v>12090</v>
+      </c>
+      <c r="I16" s="63">
+        <v>12990</v>
+      </c>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="62">
+        <v>845</v>
+      </c>
+      <c r="C17" s="62">
+        <v>910</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62">
+        <v>10</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="62">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="62">
+        <v>1090</v>
+      </c>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62">
+        <v>0</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="63">
+        <v>12490</v>
+      </c>
+      <c r="I18" s="63">
+        <v>13490</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="62">
+        <v>995</v>
+      </c>
+      <c r="C19" s="62">
+        <v>1075</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62">
+        <v>0</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="63">
+        <v>5750</v>
+      </c>
+      <c r="I19" s="63">
+        <v>6190</v>
+      </c>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="63">
+        <v>880</v>
+      </c>
+      <c r="C20" s="63">
+        <v>950</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62">
+        <v>10</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="63">
+        <v>17790</v>
+      </c>
+      <c r="I20" s="63">
+        <v>18990</v>
+      </c>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="63">
+        <v>10330</v>
+      </c>
+      <c r="I21" s="63">
+        <v>10990</v>
+      </c>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="62">
+        <v>900</v>
+      </c>
+      <c r="C22" s="62">
+        <v>970</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62">
+        <v>10</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="63">
+        <v>1730</v>
+      </c>
+      <c r="I22" s="63">
+        <v>1890</v>
+      </c>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="62">
+        <v>1040</v>
+      </c>
+      <c r="C23" s="62">
+        <v>1120</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62">
+        <v>20</v>
+      </c>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="63">
+        <v>1250</v>
+      </c>
+      <c r="I23" s="63">
+        <v>1350</v>
+      </c>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="63">
+        <v>1040</v>
+      </c>
+      <c r="C24" s="63">
+        <v>1120</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62">
+        <v>20</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="63">
+        <v>1370</v>
+      </c>
+      <c r="I24" s="63">
+        <v>1490</v>
+      </c>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
+      <c r="A25" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="63">
+        <v>930</v>
+      </c>
+      <c r="C25" s="63">
+        <v>999</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62">
+        <v>10</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="63">
+        <v>1890</v>
+      </c>
+      <c r="I25" s="63">
+        <v>2090</v>
+      </c>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75">
+      <c r="A26" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="63">
+        <v>1290</v>
+      </c>
+      <c r="C26" s="63">
+        <v>1390</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62">
+        <v>10</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="63">
+        <v>1480</v>
+      </c>
+      <c r="I26" s="63">
+        <v>1590</v>
+      </c>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
+      <c r="A27" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="63">
+        <v>1190</v>
+      </c>
+      <c r="C27" s="63">
+        <v>1290</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62">
+        <v>10</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="63">
+        <v>4280</v>
+      </c>
+      <c r="I27" s="63">
+        <v>4590</v>
+      </c>
+      <c r="J27" s="62">
+        <v>300</v>
+      </c>
+      <c r="K27" s="62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
+      <c r="A28" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="63">
+        <v>1270</v>
+      </c>
+      <c r="C28" s="63">
+        <v>1370</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62">
+        <v>10</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="63">
+        <v>5650</v>
+      </c>
+      <c r="I28" s="63">
+        <v>6150</v>
+      </c>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75">
+      <c r="A29" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="63">
+        <v>1170</v>
+      </c>
+      <c r="C29" s="63">
+        <v>1270</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62">
+        <v>10</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="63">
+        <v>5020</v>
+      </c>
+      <c r="I29" s="63">
+        <v>5390</v>
+      </c>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75">
+      <c r="A30" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="63">
+        <v>1190</v>
+      </c>
+      <c r="C30" s="63">
+        <v>1290</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62">
+        <v>10</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="63">
+        <v>5280</v>
+      </c>
+      <c r="I30" s="63">
+        <v>5690</v>
+      </c>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="61"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="63">
+        <v>4550</v>
+      </c>
+      <c r="I31" s="63">
+        <v>4890</v>
+      </c>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
+      <c r="A32" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="63">
+        <v>2780</v>
+      </c>
+      <c r="C32" s="63">
+        <v>2990</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62">
+        <v>30</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="63">
+        <v>5100</v>
+      </c>
+      <c r="I32" s="63">
+        <v>5490</v>
+      </c>
+      <c r="J32" s="62">
+        <v>70</v>
+      </c>
+      <c r="K32" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75">
+      <c r="A33" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="63">
+        <v>8290</v>
+      </c>
+      <c r="C33" s="63">
+        <v>8890</v>
+      </c>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="63">
+        <v>5560</v>
+      </c>
+      <c r="I33" s="63">
+        <v>5990</v>
+      </c>
+      <c r="J33" s="62">
+        <v>200</v>
+      </c>
+      <c r="K33" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75">
+      <c r="A34" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="63">
+        <v>8340</v>
+      </c>
+      <c r="C34" s="63">
+        <v>8990</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62">
+        <v>100</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75">
+      <c r="A35" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="63">
+        <v>9190</v>
+      </c>
+      <c r="C35" s="63">
+        <v>9990</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62">
+        <v>170</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="63">
+        <v>5390</v>
+      </c>
+      <c r="I35" s="63">
+        <v>5790</v>
+      </c>
+      <c r="J35" s="62">
+        <v>200</v>
+      </c>
+      <c r="K35" s="62">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75">
+      <c r="A36" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="63">
+        <v>6540</v>
+      </c>
+      <c r="C36" s="63">
+        <v>6990</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="63">
+        <v>3560</v>
+      </c>
+      <c r="I36" s="63">
+        <v>3840</v>
+      </c>
+      <c r="J36" s="62">
+        <v>400</v>
+      </c>
+      <c r="K36" s="62">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75">
+      <c r="A37" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="63">
+        <v>5290</v>
+      </c>
+      <c r="C37" s="63">
+        <v>5690</v>
+      </c>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62">
+        <v>80</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="63">
+        <v>3340</v>
+      </c>
+      <c r="I37" s="63">
+        <v>3590</v>
+      </c>
+      <c r="J37" s="62">
+        <v>320</v>
+      </c>
+      <c r="K37" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75">
+      <c r="A38" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="63">
+        <v>5470</v>
+      </c>
+      <c r="C38" s="63">
+        <v>5890</v>
+      </c>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62">
+        <v>70</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="63">
+        <v>4500</v>
+      </c>
+      <c r="I38" s="63">
+        <v>4790</v>
+      </c>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75">
+      <c r="A39" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="63">
+        <v>5750</v>
+      </c>
+      <c r="C39" s="63">
+        <v>6190</v>
+      </c>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62">
+        <v>80</v>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="63">
+        <v>5390</v>
+      </c>
+      <c r="I39" s="63">
+        <v>5790</v>
+      </c>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75">
+      <c r="A40" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="63">
+        <v>5940</v>
+      </c>
+      <c r="C40" s="63">
+        <v>6390</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62">
+        <v>90</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75">
+      <c r="A41" s="61"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="63">
+        <v>4970</v>
+      </c>
+      <c r="I41" s="63">
+        <v>5290</v>
+      </c>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75">
+      <c r="A42" s="61"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="63">
+        <v>4015</v>
+      </c>
+      <c r="I42" s="63">
+        <v>4390</v>
+      </c>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75">
+      <c r="A43" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="63">
+        <v>6530</v>
+      </c>
+      <c r="C43" s="63">
+        <v>6990</v>
+      </c>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62">
+        <v>0</v>
+      </c>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="63">
+        <v>3710</v>
+      </c>
+      <c r="I43" s="63">
+        <v>3990</v>
+      </c>
+      <c r="J43" s="62">
+        <v>200</v>
+      </c>
+      <c r="K43" s="62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75">
+      <c r="A44" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="63">
+        <v>6890</v>
+      </c>
+      <c r="C44" s="63">
+        <v>7490</v>
+      </c>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62">
+        <v>0</v>
+      </c>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="63">
+        <v>3620</v>
+      </c>
+      <c r="I44" s="63">
+        <v>3890</v>
+      </c>
+      <c r="J44" s="62">
+        <v>320</v>
+      </c>
+      <c r="K44" s="62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75">
+      <c r="A45" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="63">
+        <v>1220</v>
+      </c>
+      <c r="C45" s="63">
+        <v>1320</v>
+      </c>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62">
+        <v>20</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75">
+      <c r="A46" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="63">
+        <v>1460</v>
+      </c>
+      <c r="C46" s="63">
+        <v>1590</v>
+      </c>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62">
+        <v>20</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75">
+      <c r="A47" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="63">
+        <v>1070</v>
+      </c>
+      <c r="C47" s="63">
+        <v>1160</v>
+      </c>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62">
+        <v>0</v>
+      </c>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="63">
+        <v>4080</v>
+      </c>
+      <c r="I47" s="63">
+        <v>4390</v>
+      </c>
+      <c r="J47" s="62">
+        <v>200</v>
+      </c>
+      <c r="K47" s="62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75">
+      <c r="A48" s="61"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="63">
+        <v>4220</v>
+      </c>
+      <c r="I48" s="63">
+        <v>4540</v>
+      </c>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75">
+      <c r="A49" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="63">
+        <v>1200</v>
+      </c>
+      <c r="C49" s="63">
+        <v>1290</v>
+      </c>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62">
+        <v>0</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="63">
+        <v>3710</v>
+      </c>
+      <c r="I49" s="63">
+        <v>3990</v>
+      </c>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75">
+      <c r="A50" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="63">
+        <v>1080</v>
+      </c>
+      <c r="C50" s="63">
+        <v>1160</v>
+      </c>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62">
+        <v>10</v>
+      </c>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="63">
+        <v>12590</v>
+      </c>
+      <c r="I50" s="63">
+        <v>13490</v>
+      </c>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75">
+      <c r="A51" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="63">
+        <v>1100</v>
+      </c>
+      <c r="C51" s="63">
+        <v>1199</v>
+      </c>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62">
+        <v>20</v>
+      </c>
+      <c r="F51" s="60"/>
+      <c r="G51" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="63">
+        <v>8820</v>
+      </c>
+      <c r="I51" s="63">
+        <v>9490</v>
+      </c>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" s="69"/>
+      <c r="K52" s="70"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="57"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="D52:H53"/>
+    <mergeCell ref="A52:C53"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/October/Others/Price List Update_01.10.19.xlsx
+++ b/October/Others/Price List Update_01.10.19.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="122">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -873,6 +873,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,44 +958,23 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,22 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1306,7 +1306,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2406,7 +2406,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2852,7 +2852,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2923,7 +2923,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2997,7 +2997,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3068,7 +3068,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3385,7 +3385,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4485,7 +4485,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4931,7 +4931,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5002,7 +5002,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5076,7 +5076,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5147,7 +5147,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5464,7 +5464,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6564,7 +6564,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7010,7 +7010,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7081,7 +7081,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7155,7 +7155,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7226,7 +7226,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7782,48 +7782,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -8924,38 +8924,38 @@
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="40" t="s">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="42" t="s">
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="56"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="45"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
       <c r="K46" s="23"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -9028,45 +9028,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
@@ -10039,32 +10039,32 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55" t="s">
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="55"/>
-      <c r="I46" s="56"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="57"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10090,8 +10090,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection sqref="A1:K53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="A1:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10110,19 +10110,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="A2" s="73" t="s">
@@ -10139,1370 +10139,1378 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="1:11" s="74" customFormat="1" ht="18.75">
-      <c r="A3" s="77" t="s">
+    <row r="3" spans="1:11" s="49" customFormat="1" ht="18.75">
+      <c r="A3" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="77" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-    </row>
-    <row r="4" spans="1:11" s="68" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="4" spans="1:11" s="48" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="65" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="46" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="42">
         <v>800</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="42">
         <v>875</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <v>10</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="43">
         <v>1010</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="43">
         <v>1090</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="42">
         <v>780</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="42">
         <v>840</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <v>10</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="43">
         <v>1040</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="43">
         <v>1130</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="42">
         <v>810</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="42">
         <v>880</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <v>10</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="64" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="43">
+        <v>970</v>
+      </c>
+      <c r="I7" s="43">
+        <v>1050</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42">
+        <v>800</v>
+      </c>
+      <c r="C8" s="42">
+        <v>870</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42">
+        <v>10</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H8" s="43">
         <v>1100</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I8" s="43">
         <v>1199</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62">
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="62">
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="43">
+        <v>1050</v>
+      </c>
+      <c r="I9" s="43">
+        <v>1130</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42">
+        <v>790</v>
+      </c>
+      <c r="C10" s="42">
+        <v>860</v>
+      </c>
+      <c r="D10" s="42">
+        <v>30</v>
+      </c>
+      <c r="E10" s="42">
+        <v>10</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="43">
+        <v>1130</v>
+      </c>
+      <c r="I10" s="43">
+        <v>1230</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="42">
         <v>800</v>
       </c>
-      <c r="C8" s="62">
-        <v>870</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62">
+      <c r="C11" s="42">
+        <v>860</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42">
         <v>10</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="63">
-        <v>1050</v>
-      </c>
-      <c r="I8" s="63">
-        <v>1130</v>
-      </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62">
+      <c r="F11" s="40"/>
+      <c r="G11" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="43">
+        <v>1100</v>
+      </c>
+      <c r="I11" s="43">
+        <v>1190</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="63">
-        <v>1130</v>
-      </c>
-      <c r="I9" s="63">
-        <v>1230</v>
-      </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62">
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="42">
+        <v>790</v>
+      </c>
+      <c r="C12" s="42">
+        <v>850</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="62">
-        <v>790</v>
-      </c>
-      <c r="C10" s="62">
-        <v>860</v>
-      </c>
-      <c r="D10" s="62">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="43">
+        <v>1330</v>
+      </c>
+      <c r="I12" s="43">
+        <v>1450</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="42">
+        <v>915</v>
+      </c>
+      <c r="C13" s="42">
+        <v>990</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42">
+        <v>0</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="43">
+        <v>1200</v>
+      </c>
+      <c r="I13" s="43">
+        <v>1299</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="42">
+        <v>890</v>
+      </c>
+      <c r="C14" s="42">
+        <v>970</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42">
+        <v>10</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="43">
+        <v>1100</v>
+      </c>
+      <c r="I14" s="43">
+        <v>1190</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="42">
+        <v>920</v>
+      </c>
+      <c r="C15" s="42">
+        <v>999</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42">
+        <v>0</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="43">
+        <v>12240</v>
+      </c>
+      <c r="I15" s="43">
+        <v>12990</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="42">
+        <v>880</v>
+      </c>
+      <c r="C16" s="42">
+        <v>950</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42">
+        <v>20</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="43">
+        <v>12090</v>
+      </c>
+      <c r="I16" s="43">
+        <v>12990</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="42">
+        <v>845</v>
+      </c>
+      <c r="C17" s="42">
+        <v>910</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42">
+        <v>10</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="42">
+        <v>1090</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42">
+        <v>0</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="43">
+        <v>12490</v>
+      </c>
+      <c r="I18" s="43">
+        <v>13490</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="42">
+        <v>995</v>
+      </c>
+      <c r="C19" s="42">
+        <v>1075</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42">
+        <v>0</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="43">
+        <v>5750</v>
+      </c>
+      <c r="I19" s="43">
+        <v>6190</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="43">
+        <v>880</v>
+      </c>
+      <c r="C20" s="43">
+        <v>950</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42">
+        <v>10</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="43">
+        <v>17790</v>
+      </c>
+      <c r="I20" s="43">
+        <v>18990</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="41"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="43">
+        <v>10330</v>
+      </c>
+      <c r="I21" s="43">
+        <v>10990</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="42">
+        <v>900</v>
+      </c>
+      <c r="C22" s="42">
+        <v>970</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42">
+        <v>10</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="43">
+        <v>1730</v>
+      </c>
+      <c r="I22" s="43">
+        <v>1890</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="42">
+        <v>1040</v>
+      </c>
+      <c r="C23" s="42">
+        <v>1120</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42">
+        <v>20</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="43">
+        <v>1250</v>
+      </c>
+      <c r="I23" s="43">
+        <v>1350</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="43">
+        <v>1040</v>
+      </c>
+      <c r="C24" s="43">
+        <v>1120</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42">
+        <v>20</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="43">
+        <v>1370</v>
+      </c>
+      <c r="I24" s="43">
+        <v>1490</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
+      <c r="A25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="43">
+        <v>930</v>
+      </c>
+      <c r="C25" s="43">
+        <v>999</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42">
+        <v>10</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1890</v>
+      </c>
+      <c r="I25" s="43">
+        <v>2090</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75">
+      <c r="A26" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="43">
+        <v>1290</v>
+      </c>
+      <c r="C26" s="43">
+        <v>1390</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42">
+        <v>10</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="43">
+        <v>1480</v>
+      </c>
+      <c r="I26" s="43">
+        <v>1590</v>
+      </c>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
+      <c r="A27" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="43">
+        <v>1190</v>
+      </c>
+      <c r="C27" s="43">
+        <v>1290</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42">
+        <v>10</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="43">
+        <v>4280</v>
+      </c>
+      <c r="I27" s="43">
+        <v>4590</v>
+      </c>
+      <c r="J27" s="42">
+        <v>300</v>
+      </c>
+      <c r="K27" s="42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
+      <c r="A28" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="43">
+        <v>1270</v>
+      </c>
+      <c r="C28" s="43">
+        <v>1370</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42">
+        <v>10</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="43">
+        <v>5650</v>
+      </c>
+      <c r="I28" s="43">
+        <v>6150</v>
+      </c>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75">
+      <c r="A29" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="43">
+        <v>1170</v>
+      </c>
+      <c r="C29" s="43">
+        <v>1270</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42">
+        <v>10</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="43">
+        <v>5020</v>
+      </c>
+      <c r="I29" s="43">
+        <v>5390</v>
+      </c>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75">
+      <c r="A30" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="43">
+        <v>1190</v>
+      </c>
+      <c r="C30" s="43">
+        <v>1290</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42">
+        <v>10</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="43">
+        <v>5280</v>
+      </c>
+      <c r="I30" s="43">
+        <v>5690</v>
+      </c>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="41"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="43">
+        <v>4550</v>
+      </c>
+      <c r="I31" s="43">
+        <v>4890</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
+      <c r="A32" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="43">
+        <v>2780</v>
+      </c>
+      <c r="C32" s="43">
+        <v>2990</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42">
         <v>30</v>
       </c>
-      <c r="E10" s="62">
+      <c r="F32" s="40"/>
+      <c r="G32" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="43">
+        <v>5100</v>
+      </c>
+      <c r="I32" s="43">
+        <v>5490</v>
+      </c>
+      <c r="J32" s="42">
+        <v>70</v>
+      </c>
+      <c r="K32" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75">
+      <c r="A33" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="43">
+        <v>8290</v>
+      </c>
+      <c r="C33" s="43">
+        <v>8890</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="43">
+        <v>5560</v>
+      </c>
+      <c r="I33" s="43">
+        <v>5990</v>
+      </c>
+      <c r="J33" s="42">
+        <v>200</v>
+      </c>
+      <c r="K33" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75">
+      <c r="A34" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="43">
+        <v>8340</v>
+      </c>
+      <c r="C34" s="43">
+        <v>8990</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42">
+        <v>100</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75">
+      <c r="A35" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="43">
+        <v>9190</v>
+      </c>
+      <c r="C35" s="43">
+        <v>9990</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42">
+        <v>170</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="43">
+        <v>5390</v>
+      </c>
+      <c r="I35" s="43">
+        <v>5790</v>
+      </c>
+      <c r="J35" s="42">
+        <v>200</v>
+      </c>
+      <c r="K35" s="42">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75">
+      <c r="A36" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="43">
+        <v>6540</v>
+      </c>
+      <c r="C36" s="43">
+        <v>6990</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="43">
+        <v>3560</v>
+      </c>
+      <c r="I36" s="43">
+        <v>3840</v>
+      </c>
+      <c r="J36" s="42">
+        <v>400</v>
+      </c>
+      <c r="K36" s="42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75">
+      <c r="A37" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="43">
+        <v>5290</v>
+      </c>
+      <c r="C37" s="43">
+        <v>5690</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42">
+        <v>80</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="43">
+        <v>3340</v>
+      </c>
+      <c r="I37" s="43">
+        <v>3590</v>
+      </c>
+      <c r="J37" s="42">
+        <v>320</v>
+      </c>
+      <c r="K37" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75">
+      <c r="A38" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="43">
+        <v>5470</v>
+      </c>
+      <c r="C38" s="43">
+        <v>5890</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42">
+        <v>70</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="43">
+        <v>4500</v>
+      </c>
+      <c r="I38" s="43">
+        <v>4790</v>
+      </c>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75">
+      <c r="A39" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="43">
+        <v>5750</v>
+      </c>
+      <c r="C39" s="43">
+        <v>6190</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42">
+        <v>80</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="43">
+        <v>5390</v>
+      </c>
+      <c r="I39" s="43">
+        <v>5790</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75">
+      <c r="A40" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="43">
+        <v>5940</v>
+      </c>
+      <c r="C40" s="43">
+        <v>6390</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42">
+        <v>90</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75">
+      <c r="A41" s="41"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="43">
+        <v>4970</v>
+      </c>
+      <c r="I41" s="43">
+        <v>5290</v>
+      </c>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75">
+      <c r="A42" s="41"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="43">
+        <v>4015</v>
+      </c>
+      <c r="I42" s="43">
+        <v>4390</v>
+      </c>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75">
+      <c r="A43" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="43">
+        <v>6530</v>
+      </c>
+      <c r="C43" s="43">
+        <v>6990</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42">
+        <v>0</v>
+      </c>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="43">
+        <v>3710</v>
+      </c>
+      <c r="I43" s="43">
+        <v>3990</v>
+      </c>
+      <c r="J43" s="42">
+        <v>200</v>
+      </c>
+      <c r="K43" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75">
+      <c r="A44" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="43">
+        <v>6890</v>
+      </c>
+      <c r="C44" s="43">
+        <v>7490</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42">
+        <v>0</v>
+      </c>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="43">
+        <v>3620</v>
+      </c>
+      <c r="I44" s="43">
+        <v>3890</v>
+      </c>
+      <c r="J44" s="42">
+        <v>320</v>
+      </c>
+      <c r="K44" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75">
+      <c r="A45" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="43">
+        <v>1220</v>
+      </c>
+      <c r="C45" s="43">
+        <v>1320</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42">
+        <v>20</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75">
+      <c r="A46" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="43">
+        <v>1460</v>
+      </c>
+      <c r="C46" s="43">
+        <v>1590</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42">
+        <v>20</v>
+      </c>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75">
+      <c r="A47" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="43">
+        <v>1070</v>
+      </c>
+      <c r="C47" s="43">
+        <v>1160</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42">
+        <v>0</v>
+      </c>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="43">
+        <v>4080</v>
+      </c>
+      <c r="I47" s="43">
+        <v>4390</v>
+      </c>
+      <c r="J47" s="42">
+        <v>200</v>
+      </c>
+      <c r="K47" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75">
+      <c r="A48" s="41"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="43">
+        <v>4220</v>
+      </c>
+      <c r="I48" s="43">
+        <v>4540</v>
+      </c>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75">
+      <c r="A49" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="43">
+        <v>1200</v>
+      </c>
+      <c r="C49" s="43">
+        <v>1290</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42">
+        <v>0</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="43">
+        <v>3710</v>
+      </c>
+      <c r="I49" s="43">
+        <v>3990</v>
+      </c>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75">
+      <c r="A50" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="43">
+        <v>1080</v>
+      </c>
+      <c r="C50" s="43">
+        <v>1160</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42">
         <v>10</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="63">
+      <c r="F50" s="40"/>
+      <c r="G50" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="43">
+        <v>12590</v>
+      </c>
+      <c r="I50" s="43">
+        <v>13490</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75">
+      <c r="A51" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="43">
         <v>1100</v>
       </c>
-      <c r="I10" s="63">
-        <v>1190</v>
-      </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="62">
-        <v>800</v>
-      </c>
-      <c r="C11" s="62">
-        <v>860</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62">
-        <v>10</v>
-      </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="63">
-        <v>1330</v>
-      </c>
-      <c r="I11" s="63">
-        <v>1450</v>
-      </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62">
+      <c r="C51" s="43">
+        <v>1199</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="62">
-        <v>790</v>
-      </c>
-      <c r="C12" s="62">
-        <v>850</v>
-      </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62">
-        <v>10</v>
-      </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="63">
-        <v>1200</v>
-      </c>
-      <c r="I12" s="63">
-        <v>1299</v>
-      </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="62">
-        <v>915</v>
-      </c>
-      <c r="C13" s="62">
-        <v>990</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62">
+      <c r="F51" s="40"/>
+      <c r="G51" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="43">
+        <v>8820</v>
+      </c>
+      <c r="I51" s="43">
+        <v>9490</v>
+      </c>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42">
         <v>0</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="63">
-        <v>1100</v>
-      </c>
-      <c r="I13" s="63">
-        <v>1190</v>
-      </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="62">
-        <v>890</v>
-      </c>
-      <c r="C14" s="62">
-        <v>970</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62">
-        <v>10</v>
-      </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="63">
-        <v>12240</v>
-      </c>
-      <c r="I14" s="63">
-        <v>12990</v>
-      </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="62">
-        <v>920</v>
-      </c>
-      <c r="C15" s="62">
-        <v>999</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62">
-        <v>0</v>
-      </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="62">
-        <v>880</v>
-      </c>
-      <c r="C16" s="62">
-        <v>950</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62">
-        <v>20</v>
-      </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="63">
-        <v>12090</v>
-      </c>
-      <c r="I16" s="63">
-        <v>12990</v>
-      </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="62">
-        <v>845</v>
-      </c>
-      <c r="C17" s="62">
-        <v>910</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62">
-        <v>10</v>
-      </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="62">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="62">
-        <v>1090</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62">
-        <v>0</v>
-      </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="63">
-        <v>12490</v>
-      </c>
-      <c r="I18" s="63">
-        <v>13490</v>
-      </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="62">
-        <v>995</v>
-      </c>
-      <c r="C19" s="62">
-        <v>1075</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62">
-        <v>0</v>
-      </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="63">
-        <v>5750</v>
-      </c>
-      <c r="I19" s="63">
-        <v>6190</v>
-      </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="63">
-        <v>880</v>
-      </c>
-      <c r="C20" s="63">
-        <v>950</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62">
-        <v>10</v>
-      </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="63">
-        <v>17790</v>
-      </c>
-      <c r="I20" s="63">
-        <v>18990</v>
-      </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="61"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="63">
-        <v>10330</v>
-      </c>
-      <c r="I21" s="63">
-        <v>10990</v>
-      </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="62">
-        <v>900</v>
-      </c>
-      <c r="C22" s="62">
-        <v>970</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62">
-        <v>10</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="63">
-        <v>1730</v>
-      </c>
-      <c r="I22" s="63">
-        <v>1890</v>
-      </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="62">
-        <v>1040</v>
-      </c>
-      <c r="C23" s="62">
-        <v>1120</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62">
-        <v>20</v>
-      </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="63">
-        <v>1250</v>
-      </c>
-      <c r="I23" s="63">
-        <v>1350</v>
-      </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="63">
-        <v>1040</v>
-      </c>
-      <c r="C24" s="63">
-        <v>1120</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62">
-        <v>20</v>
-      </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="63">
-        <v>1370</v>
-      </c>
-      <c r="I24" s="63">
-        <v>1490</v>
-      </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="63">
-        <v>930</v>
-      </c>
-      <c r="C25" s="63">
-        <v>999</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62">
-        <v>10</v>
-      </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="63">
-        <v>1890</v>
-      </c>
-      <c r="I25" s="63">
-        <v>2090</v>
-      </c>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="63">
-        <v>1290</v>
-      </c>
-      <c r="C26" s="63">
-        <v>1390</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62">
-        <v>10</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="63">
-        <v>1480</v>
-      </c>
-      <c r="I26" s="63">
-        <v>1590</v>
-      </c>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="63">
-        <v>1190</v>
-      </c>
-      <c r="C27" s="63">
-        <v>1290</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62">
-        <v>10</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="63">
-        <v>4280</v>
-      </c>
-      <c r="I27" s="63">
-        <v>4590</v>
-      </c>
-      <c r="J27" s="62">
-        <v>300</v>
-      </c>
-      <c r="K27" s="62">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="63">
-        <v>1270</v>
-      </c>
-      <c r="C28" s="63">
-        <v>1370</v>
-      </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62">
-        <v>10</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="63">
-        <v>5650</v>
-      </c>
-      <c r="I28" s="63">
-        <v>6150</v>
-      </c>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="63">
-        <v>1170</v>
-      </c>
-      <c r="C29" s="63">
-        <v>1270</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62">
-        <v>10</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="63">
-        <v>5020</v>
-      </c>
-      <c r="I29" s="63">
-        <v>5390</v>
-      </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="63">
-        <v>1190</v>
-      </c>
-      <c r="C30" s="63">
-        <v>1290</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62">
-        <v>10</v>
-      </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="63">
-        <v>5280</v>
-      </c>
-      <c r="I30" s="63">
-        <v>5690</v>
-      </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="61"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="63">
-        <v>4550</v>
-      </c>
-      <c r="I31" s="63">
-        <v>4890</v>
-      </c>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="63">
-        <v>2780</v>
-      </c>
-      <c r="C32" s="63">
-        <v>2990</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62">
-        <v>30</v>
-      </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="63">
-        <v>5100</v>
-      </c>
-      <c r="I32" s="63">
-        <v>5490</v>
-      </c>
-      <c r="J32" s="62">
-        <v>70</v>
-      </c>
-      <c r="K32" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="63">
-        <v>8290</v>
-      </c>
-      <c r="C33" s="63">
-        <v>8890</v>
-      </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="63">
-        <v>5560</v>
-      </c>
-      <c r="I33" s="63">
-        <v>5990</v>
-      </c>
-      <c r="J33" s="62">
-        <v>200</v>
-      </c>
-      <c r="K33" s="62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="63">
-        <v>8340</v>
-      </c>
-      <c r="C34" s="63">
-        <v>8990</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62">
-        <v>100</v>
-      </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="63">
-        <v>9190</v>
-      </c>
-      <c r="C35" s="63">
-        <v>9990</v>
-      </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62">
-        <v>170</v>
-      </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="63">
-        <v>5390</v>
-      </c>
-      <c r="I35" s="63">
-        <v>5790</v>
-      </c>
-      <c r="J35" s="62">
-        <v>200</v>
-      </c>
-      <c r="K35" s="62">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="63">
-        <v>6540</v>
-      </c>
-      <c r="C36" s="63">
-        <v>6990</v>
-      </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="63">
-        <v>3560</v>
-      </c>
-      <c r="I36" s="63">
-        <v>3840</v>
-      </c>
-      <c r="J36" s="62">
-        <v>400</v>
-      </c>
-      <c r="K36" s="62">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="63">
-        <v>5290</v>
-      </c>
-      <c r="C37" s="63">
-        <v>5690</v>
-      </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62">
-        <v>80</v>
-      </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="63">
-        <v>3340</v>
-      </c>
-      <c r="I37" s="63">
-        <v>3590</v>
-      </c>
-      <c r="J37" s="62">
-        <v>320</v>
-      </c>
-      <c r="K37" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="63">
-        <v>5470</v>
-      </c>
-      <c r="C38" s="63">
-        <v>5890</v>
-      </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62">
-        <v>70</v>
-      </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" s="63">
-        <v>4500</v>
-      </c>
-      <c r="I38" s="63">
-        <v>4790</v>
-      </c>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="63">
-        <v>5750</v>
-      </c>
-      <c r="C39" s="63">
-        <v>6190</v>
-      </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62">
-        <v>80</v>
-      </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="63">
-        <v>5390</v>
-      </c>
-      <c r="I39" s="63">
-        <v>5790</v>
-      </c>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="63">
-        <v>5940</v>
-      </c>
-      <c r="C40" s="63">
-        <v>6390</v>
-      </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62">
-        <v>90</v>
-      </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="63">
-        <v>4970</v>
-      </c>
-      <c r="I41" s="63">
-        <v>5290</v>
-      </c>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="61"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="63">
-        <v>4015</v>
-      </c>
-      <c r="I42" s="63">
-        <v>4390</v>
-      </c>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="63">
-        <v>6530</v>
-      </c>
-      <c r="C43" s="63">
-        <v>6990</v>
-      </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62">
-        <v>0</v>
-      </c>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="63">
-        <v>3710</v>
-      </c>
-      <c r="I43" s="63">
-        <v>3990</v>
-      </c>
-      <c r="J43" s="62">
-        <v>200</v>
-      </c>
-      <c r="K43" s="62">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="63">
-        <v>6890</v>
-      </c>
-      <c r="C44" s="63">
-        <v>7490</v>
-      </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62">
-        <v>0</v>
-      </c>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="63">
-        <v>3620</v>
-      </c>
-      <c r="I44" s="63">
-        <v>3890</v>
-      </c>
-      <c r="J44" s="62">
-        <v>320</v>
-      </c>
-      <c r="K44" s="62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="63">
-        <v>1220</v>
-      </c>
-      <c r="C45" s="63">
-        <v>1320</v>
-      </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62">
-        <v>20</v>
-      </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="63">
-        <v>1460</v>
-      </c>
-      <c r="C46" s="63">
-        <v>1590</v>
-      </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62">
-        <v>20</v>
-      </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="63">
-        <v>1070</v>
-      </c>
-      <c r="C47" s="63">
-        <v>1160</v>
-      </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62">
-        <v>0</v>
-      </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="63">
-        <v>4080</v>
-      </c>
-      <c r="I47" s="63">
-        <v>4390</v>
-      </c>
-      <c r="J47" s="62">
-        <v>200</v>
-      </c>
-      <c r="K47" s="62">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="61"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="63">
-        <v>4220</v>
-      </c>
-      <c r="I48" s="63">
-        <v>4540</v>
-      </c>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="63">
-        <v>1200</v>
-      </c>
-      <c r="C49" s="63">
-        <v>1290</v>
-      </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62">
-        <v>0</v>
-      </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="63">
-        <v>3710</v>
-      </c>
-      <c r="I49" s="63">
-        <v>3990</v>
-      </c>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="63">
-        <v>1080</v>
-      </c>
-      <c r="C50" s="63">
-        <v>1160</v>
-      </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62">
-        <v>10</v>
-      </c>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="H50" s="63">
-        <v>12590</v>
-      </c>
-      <c r="I50" s="63">
-        <v>13490</v>
-      </c>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="63">
-        <v>1100</v>
-      </c>
-      <c r="C51" s="63">
-        <v>1199</v>
-      </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62">
-        <v>20</v>
-      </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H51" s="63">
-        <v>8820</v>
-      </c>
-      <c r="I51" s="63">
-        <v>9490</v>
-      </c>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62">
-        <v>0</v>
-      </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55" t="s">
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="69" t="s">
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="70"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="76"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="57"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="72"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="7">
